--- a/大学生新闻中心值班表/马琦空课表.xlsx
+++ b/大学生新闻中心值班表/马琦空课表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学生新闻中心值班表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_project\nepu_random\大学生新闻中心值班表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB8014E-6D5D-4344-ADB5-95DBF4817694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB66EB3-8905-4D7F-8DCB-71402A842854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="19380" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>新媒体工作室值班表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>周一</t>
   </si>
@@ -57,7 +54,31 @@
   </si>
   <si>
     <t>马琦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五大节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六大节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马琦（单周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马琦（双周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生新闻中心1-8周空课表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -73,12 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF010000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -91,8 +106,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +128,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,17 +149,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,90 +459,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -501,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
